--- a/Output_testing/R1_201907/Country/HKD/MN/PUERTO RICO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PUERTO RICO_201907_HKD_MN.xlsx
@@ -544,28 +544,38 @@
       <c r="C7" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.020271</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.000864</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.01973</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-100</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>∞</t>
         </is>
       </c>
-      <c r="J7" s="9" t="n">
-        <v>2183.564814814815</v>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
     <row r="8">

--- a/Output_testing/R1_201907/Country/HKD/MN/PUERTO RICO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PUERTO RICO_201907_HKD_MN.xlsx
@@ -822,136 +822,447 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>42.202015</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>23.15333687734378</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>76.544659</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>36.40169862605315</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>137.668381</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>49.39266701749853</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>25.424359</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>23.64881055994521</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-75.09767637881447</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>61.786485</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>33.89798571636801</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>53.012359</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>25.21064096417408</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>51.313636</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>18.41030829297778</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>19.719191</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>18.34207156823016</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-25.64530139529753</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.1371297886879382</v>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.08911358137661304</v>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>14.328818</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>13.32814339311103</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>17.365603</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>9.527309450442397</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>18.495656</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>8.795823306276034</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>15.07165</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.407407165297323</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>8.843772</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>8.226153849674157</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>14.19745745279646</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>2.612445</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.433268510011486</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.529325</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.7272882063696793</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>6.237761</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.237984130922108</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>6.751741</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.280222988466103</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>323.8774851649746</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>7.047258</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.866344735803633</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>10.633119</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.056702823549839</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>9.842083000000001</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.531142916379491</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>6.144485</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>5.715375626713931</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>19.46706418475803</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>4.222057</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.316351672694952</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>3.875248</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.842919044125799</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>6.848749</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.457194429005641</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>5.106952</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>4.750300307934345</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>32.62516146557503</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>8.958627999999999</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>4.914981714565158</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>10.878463</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>5.17337900271618</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>6.813551</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.444566089215098</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>3.379964</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.143919118489267</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>72.05755539243286</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.107561865505418</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.1915124509248988</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>2.881407</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.033791314019226</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2.220742</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.065653134480749</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>228.8487623425163</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>0.680648</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.3734246442709024</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>3.299348</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.569043132826174</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>3.516257</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.261562821378341</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.784086</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.659491664535197</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-11.09965029563921</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>36.950705</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>20.27230502430633</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>31.419441</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>14.94187886160755</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>38.433598</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>13.78920776513234</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>13.803872</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>12.83985778841984</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-40.49414458505058</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -983,136 +1294,623 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>93.84835479256081</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>6.151645207439199</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1144,136 +1942,447 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>42.202015</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>23.15591211592095</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>76.544659</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>36.40169862605315</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>137.668381</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>49.39282012830279</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>25.424359</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>23.65315141602638</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-75.09767637881447</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>61.786485</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>33.90175603254176</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>53.012359</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>25.21064096417408</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>51.313636</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>18.41036536252433</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>19.719191</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>18.34543834613666</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-25.64530139529753</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.1371450410001116</v>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.08911358137661304</v>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>14.328818</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>13.33058983971569</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>17.365603</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>9.528369129008963</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>18.495656</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>8.795823306276034</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>15.07165</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.407423927551925</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>8.843772</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>8.227663800877513</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>14.19745745279646</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2.612445</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.433427925839017</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1.529325</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.7272882063696793</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>6.237761</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.237991068380053</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>6.751741</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.281375754440588</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>323.8774851649746</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>7.047258</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.866774771446833</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>10.633119</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.056702823549839</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>9.842083000000001</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.531153862460449</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>6.144485</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>5.716424712162962</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>19.46706418475803</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>4.203033</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.306170991321518</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>3.875248</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.842919044125799</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>6.847885</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.456892059072757</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>5.087222</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>4.732816754709156</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>32.14243226015261</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>8.958627999999999</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>4.915528385249583</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>10.878463</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>5.17337900271618</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>6.813551</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.444573667050081</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>3.379964</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.144496200384764</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>72.05755539243286</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.1075738291142468</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.1915124509248988</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>2.881407</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.033794518637018</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>2.220742</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.066032295324702</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>228.8487623425163</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>0.680648</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.3734661785670036</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>3.299348</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.569043132826174</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>3.516257</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.261566732058</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.784086</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.659796272433568</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-11.09965029563921</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>36.949458</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>20.27387559999001</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>31.419441</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>14.94187886160755</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>38.433598</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>13.78925050987197</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>13.803872</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>12.84221460778802</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-40.49414458505058</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1305,136 +2414,497 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>84.31518699999999</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>38.39485997903991</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>104.130146</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>28.0157141327352</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>113.914799</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>33.45217099907232</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>76.807783</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>39.94205733190775</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>114.2158505786115</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>9.754249</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>4.441821667971751</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>71.12591</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>19.13608343534495</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>140.395428</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>41.22846114966982</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>53.492061</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>27.81727168539557</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-13.80022472313156</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>49.457963</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>22.5218211783547</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>144.8782</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>38.97878175706424</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>66.923412</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>19.65270045435772</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>39.536927</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>20.56023677914843</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-11.63074883696781</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>14.533795</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.557953770651006</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>63.895345</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>29.0962151882252</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>42.044741</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>11.31193501486967</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>7.952961</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.335463115033484</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>2.709431</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.408975029768118</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-33.08341779930096</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>RUBBER TYRES, INTERCHANGEABLE TYRE TREADS, TYRE FLAPS AND INNER TUBES FOR WHEELS OF ALL KINDS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>5.240389</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.386331680563087</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>2.552026</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.6866103008758643</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>6.255396</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.836956905475583</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.515805</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.308284442292784</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-49.89240771302457</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PRINTING AND BOOKBINDING MACHINERY, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.8720838895403257</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>2.261873</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.029995902462636</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>2.023698</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.5444661977040535</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1.258975</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.369710058335415</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.2150121009570073</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-44.71674727002638</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.07701951301554862</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.2084015282653933</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.07965656889207394</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>4.506053</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>2.051934890367173</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>4.930061</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1.326409161406022</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>3.817054</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>1.120914439928854</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-79.82820938638235</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
